--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Spring.013020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Spring.013020.xlsx_with_dialog_acts.xlsx
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1945,12 +1945,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2113,12 +2113,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2407,12 +2407,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2491,12 +2491,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3381,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3423,12 +3423,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3591,12 +3591,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3633,12 +3633,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5489,12 +5489,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5615,12 +5615,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5871,12 +5871,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6123,12 +6123,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6165,12 +6165,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6459,12 +6459,12 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6879,12 +6879,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6963,12 +6963,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7131,12 +7131,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7215,12 +7215,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7811,12 +7811,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8021,12 +8021,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8571,12 +8571,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8655,12 +8655,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8739,12 +8739,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9117,12 +9117,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9453,12 +9453,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9495,12 +9495,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9747,12 +9747,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9789,12 +9789,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9831,12 +9831,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9999,12 +9999,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10713,12 +10713,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10797,12 +10797,12 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11007,12 +11007,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11259,12 +11259,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11641,12 +11641,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11985,12 +11985,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13291,12 +13291,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13837,12 +13837,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14261,12 +14261,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14345,12 +14345,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14555,12 +14555,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14723,12 +14723,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14807,12 +14807,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
